--- a/cypress/data/Property data.xlsx
+++ b/cypress/data/Property data.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t xml:space="preserve">unit</t>
   </si>
@@ -121,67 +123,25 @@
     <t xml:space="preserve">Lane</t>
   </si>
   <si>
-    <t xml:space="preserve">Cypress automation property 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h.milroyperera+press07@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australian Capital Territory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cypress automation property 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h.milroyperera+press08@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New South Wales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cypress automation property 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h.milroyperera+press09@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northern Territory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Highway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cypress automation property 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h.milroyperera+press10@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cypress automation property 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h.milroyperera+press11@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Way</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cypress automation property 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h.milroyperera+press12@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crescent</t>
+    <t xml:space="preserve">lease_catagory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weekly_rent_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lease_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bond_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bond_reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Lease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed</t>
   </si>
 </sst>
 </file>
@@ -385,16 +345,16 @@
   </sheetPr>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L25" activeCellId="0" sqref="L25:L26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.94"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="31.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.81"/>
@@ -575,215 +535,65 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="6" t="n">
-        <v>50</v>
-      </c>
-      <c r="C6" s="6" t="n">
-        <v>44</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>50</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>5008</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>36</v>
-      </c>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
+      <c r="I6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="6" t="n">
-        <v>60</v>
-      </c>
-      <c r="C7" s="6" t="n">
-        <v>45</v>
-      </c>
-      <c r="D7" s="6" t="n">
-        <v>50</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>5008</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="C8" s="6" t="n">
-        <v>46</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>50</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>5008</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="C9" s="6" t="n">
-        <v>47</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>50</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>5008</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="C10" s="6" t="n">
-        <v>48</v>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>50</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>5008</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="6" t="n">
-        <v>100</v>
-      </c>
-      <c r="C11" s="6" t="n">
-        <v>49</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>50</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>5008</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
@@ -797,12 +607,6 @@
     <hyperlink ref="H3" r:id="rId2" display="h.milroyperera+press04@gmail.com"/>
     <hyperlink ref="H4" r:id="rId3" display="h.milroyperera+press05@gmail.com"/>
     <hyperlink ref="H5" r:id="rId4" display="h.milroyperera+press06@gmail.com"/>
-    <hyperlink ref="H6" r:id="rId5" display="h.milroyperera+press07@gmail.com"/>
-    <hyperlink ref="H7" r:id="rId6" display="h.milroyperera+press08@gmail.com"/>
-    <hyperlink ref="H8" r:id="rId7" display="h.milroyperera+press09@gmail.com"/>
-    <hyperlink ref="H9" r:id="rId8" display="h.milroyperera+press10@gmail.com"/>
-    <hyperlink ref="H10" r:id="rId9" display="h.milroyperera+press11@gmail.com"/>
-    <hyperlink ref="H11" r:id="rId10" display="h.milroyperera+press12@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -812,4 +616,253 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.12"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>456456</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>701</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>5001</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>456457</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>702</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>5002</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>456458</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>703</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>5003</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>456459</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>704</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>5004</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>456460</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>705</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>5005</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>456461</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P18" activeCellId="0" sqref="P18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>